--- a/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
+++ b/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
@@ -515,7 +515,7 @@
         <v>0.53</v>
       </c>
       <c r="E2" t="n">
-        <v>95935.83708400001</v>
+        <v>146007.9884</v>
       </c>
       <c r="F2" t="n">
         <v>85887052</v>

--- a/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
+++ b/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
@@ -515,7 +515,7 @@
         <v>0.53</v>
       </c>
       <c r="E2" t="n">
-        <v>146007.9884</v>
+        <v>95935.83708400001</v>
       </c>
       <c r="F2" t="n">
         <v>85887052</v>

--- a/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
+++ b/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
@@ -515,7 +515,7 @@
         <v>0.53</v>
       </c>
       <c r="E2" t="n">
-        <v>95935.83708400001</v>
+        <v>86342253.37560001</v>
       </c>
       <c r="F2" t="n">
         <v>85887052</v>

--- a/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
+++ b/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
@@ -515,7 +515,7 @@
         <v>0.53</v>
       </c>
       <c r="E2" t="n">
-        <v>86342253.37560001</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
         <v>85887052</v>

--- a/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
+++ b/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
@@ -515,7 +515,7 @@
         <v>0.53</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>131407189.56</v>
       </c>
       <c r="F2" t="n">
         <v>85887052</v>

--- a/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
+++ b/Nevasa/MBI/20250224/20250224_informe_operaciones_mbi.xlsx
@@ -515,7 +515,7 @@
         <v>0.53</v>
       </c>
       <c r="E2" t="n">
-        <v>131407189.56</v>
+        <v>86342253.37560001</v>
       </c>
       <c r="F2" t="n">
         <v>85887052</v>
